--- a/EMAIL CONNECTION/self generated data/final data.xlsx
+++ b/EMAIL CONNECTION/self generated data/final data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KuroBulls\EMAIL CONNECTION\self generated data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F67D0C-DAB1-4B28-AF0A-0A6CB25D1CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6C2082-5C75-4243-AAFC-BC68CFF944C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{DF374918-2B08-41DB-ADDE-8EBFC3EBE05F}"/>
   </bookViews>
@@ -1571,8 +1571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{862D1AE5-29B9-4AA1-99C7-5F811C65B74F}">
   <dimension ref="A1:I300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
